--- a/CashFlow/TYL_cashflow.xlsx
+++ b/CashFlow/TYL_cashflow.xlsx
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>100053000.0</v>
+        <v>133000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-967000.0</v>
+        <v>47000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-1009000.0</v>
+        <v>35895000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-5668000.0</v>
+        <v>22670000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3256000.0</v>
+        <v>18276000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1516000.0</v>
